--- a/Scaler_Imputer_Test.xlsx
+++ b/Scaler_Imputer_Test.xlsx
@@ -49,31 +49,31 @@
     <t>simple_imputer_most_frequent</t>
   </si>
   <si>
+    <t>simple_imputer_constant</t>
+  </si>
+  <si>
     <t>simple_imputer_median</t>
   </si>
   <si>
-    <t>simple_imputer_constant</t>
+    <t>standard_scaler</t>
+  </si>
+  <si>
+    <t>max_abs_scaler</t>
+  </si>
+  <si>
+    <t>quantile_transformer_normal</t>
+  </si>
+  <si>
+    <t>min_max_scaler</t>
+  </si>
+  <si>
+    <t>quantile_transformer_uniform</t>
+  </si>
+  <si>
+    <t>robust_scaler</t>
   </si>
   <si>
     <t>power_transformer</t>
-  </si>
-  <si>
-    <t>max_abs_scaler</t>
-  </si>
-  <si>
-    <t>quantile_transformer_uniform</t>
-  </si>
-  <si>
-    <t>quantile_transformer_normal</t>
-  </si>
-  <si>
-    <t>min_max_scaler</t>
-  </si>
-  <si>
-    <t>robust_scaler</t>
-  </si>
-  <si>
-    <t>standard_scaler</t>
   </si>
   <si>
     <t>normalizer</t>
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -483,13 +483,13 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>4.581316860367382</v>
+        <v>4.778502273365991</v>
       </c>
       <c r="E2">
-        <v>0.9084521723919199</v>
+        <v>0.9004019176421569</v>
       </c>
       <c r="F2">
-        <v>3.492603916784535</v>
+        <v>3.560118132956152</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -515,13 +515,13 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>4.63796668627573</v>
+        <v>4.82971684014801</v>
       </c>
       <c r="E3">
-        <v>0.9061741230077884</v>
+        <v>0.8982555516198453</v>
       </c>
       <c r="F3">
-        <v>3.471487346770392</v>
+        <v>3.587145358910893</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -530,15 +530,15 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -547,13 +547,13 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>4.673336768620572</v>
+        <v>4.83833385957466</v>
       </c>
       <c r="E4">
-        <v>0.9047375955412099</v>
+        <v>0.8978921696506966</v>
       </c>
       <c r="F4">
-        <v>3.514154114804337</v>
+        <v>3.628256419141915</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -579,30 +579,30 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>4.692092619965053</v>
+        <v>4.874332080052537</v>
       </c>
       <c r="E5">
-        <v>0.9039714136935014</v>
+        <v>0.8963671098729474</v>
       </c>
       <c r="F5">
-        <v>3.547333646864685</v>
+        <v>3.648328688708158</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -611,25 +611,25 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>4.727927576909773</v>
+        <v>4.870381258390181</v>
       </c>
       <c r="E6">
-        <v>0.9024990126935861</v>
+        <v>0.896535038167365</v>
       </c>
       <c r="F6">
-        <v>3.567154573314475</v>
+        <v>3.665988727015556</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -643,13 +643,13 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>4.739733799266068</v>
+        <v>4.910968880468907</v>
       </c>
       <c r="E7">
-        <v>0.9020114605642124</v>
+        <v>0.8948033894477697</v>
       </c>
       <c r="F7">
-        <v>3.589182814710042</v>
+        <v>3.656200561056107</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -658,15 +658,15 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -675,13 +675,13 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>4.789548066805921</v>
+        <v>4.984618632153915</v>
       </c>
       <c r="E8">
-        <v>0.89994093162553</v>
+        <v>0.8916244646542305</v>
       </c>
       <c r="F8">
-        <v>3.628655994813767</v>
+        <v>3.732535459688825</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -707,13 +707,13 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>5.170663358935031</v>
+        <v>5.136791797979996</v>
       </c>
       <c r="E9">
-        <v>0.8833835249783554</v>
+        <v>0.8849063641802992</v>
       </c>
       <c r="F9">
-        <v>3.880058228429988</v>
+        <v>3.991240183089737</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -730,159 +730,159 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>9.963969979296484</v>
+        <v>10.02063358469187</v>
       </c>
       <c r="E10">
-        <v>0.5669558226627217</v>
+        <v>0.5620165031027367</v>
       </c>
       <c r="F10">
-        <v>8.042182042807966</v>
+        <v>8.176696722708998</v>
       </c>
       <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
         <v>10</v>
       </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
       <c r="J10">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>9.962967917287841</v>
+        <v>10.03334238347541</v>
       </c>
       <c r="E11">
-        <v>0.567042919532516</v>
+        <v>0.5609048420852492</v>
       </c>
       <c r="F11">
-        <v>8.050990830933269</v>
+        <v>8.182997050074611</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>10.03069751500036</v>
+      </c>
+      <c r="E12">
+        <v>0.5611363094918123</v>
+      </c>
+      <c r="F12">
+        <v>8.185699134842222</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
         <v>14</v>
       </c>
-      <c r="D12">
-        <v>9.978106152162187</v>
-      </c>
-      <c r="E12">
-        <v>0.5657262063955689</v>
-      </c>
-      <c r="F12">
-        <v>8.059357445746697</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <v>13</v>
-      </c>
       <c r="J12">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>9.978360643717327</v>
+        <v>10.03777253952075</v>
       </c>
       <c r="E13">
-        <v>0.5657040538105393</v>
+        <v>0.5605169973467132</v>
       </c>
       <c r="F13">
-        <v>8.049909840726599</v>
+        <v>8.162921926540378</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>9.983571212725025</v>
+        <v>10.03361610112727</v>
       </c>
       <c r="E14">
-        <v>0.5652503680972004</v>
+        <v>0.5608808840201527</v>
       </c>
       <c r="F14">
-        <v>8.064356557953808</v>
+        <v>8.203782014083822</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J14">
         <v>43</v>
@@ -890,31 +890,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>10.03924030025636</v>
+      </c>
+      <c r="E15">
+        <v>0.5603884622451325</v>
+      </c>
+      <c r="F15">
+        <v>8.183371854419734</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15">
         <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>9.990705946070268</v>
-      </c>
-      <c r="E15">
-        <v>0.5646287606614969</v>
-      </c>
-      <c r="F15">
-        <v>8.049318776294335</v>
-      </c>
-      <c r="G15">
-        <v>17</v>
-      </c>
-      <c r="H15">
-        <v>17</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
       </c>
       <c r="J15">
         <v>44</v>
@@ -922,95 +922,95 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>9.982519143125462</v>
+        <v>10.03684747976839</v>
       </c>
       <c r="E16">
-        <v>0.5653419911770916</v>
+        <v>0.5605979972503667</v>
       </c>
       <c r="F16">
-        <v>8.069485787134305</v>
+        <v>8.20915079438991</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>10.03663742565397</v>
+      </c>
+      <c r="E17">
+        <v>0.5606163889282176</v>
+      </c>
+      <c r="F17">
+        <v>8.219090986416665</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>9.984060610489692</v>
-      </c>
-      <c r="E17">
-        <v>0.5652077439282683</v>
-      </c>
-      <c r="F17">
-        <v>8.068553266233087</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>15</v>
-      </c>
-      <c r="I17">
-        <v>18</v>
-      </c>
       <c r="J17">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>9.987669946611041</v>
+        <v>10.04023614113083</v>
       </c>
       <c r="E18">
-        <v>0.5648933237505249</v>
+        <v>0.5603012435237931</v>
       </c>
       <c r="F18">
-        <v>8.068045424623001</v>
+        <v>8.18893717704977</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <v>49</v>
@@ -1018,22 +1018,22 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>9.993359098951698</v>
+        <v>10.04164125575268</v>
       </c>
       <c r="E19">
-        <v>0.5643974937539071</v>
+        <v>0.5601781646688344</v>
       </c>
       <c r="F19">
-        <v>8.063343793645952</v>
+        <v>8.195197232319284</v>
       </c>
       <c r="G19">
         <v>18</v>
@@ -1042,30 +1042,30 @@
         <v>18</v>
       </c>
       <c r="I19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>10.00545794985958</v>
+        <v>10.04758140493092</v>
       </c>
       <c r="E20">
-        <v>0.5633420968513956</v>
+        <v>0.559657656119843</v>
       </c>
       <c r="F20">
-        <v>8.066112051365321</v>
+        <v>8.184361052938526</v>
       </c>
       <c r="G20">
         <v>21</v>
@@ -1074,30 +1074,30 @@
         <v>21</v>
       </c>
       <c r="I20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J20">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>9.994626596250866</v>
+        <v>10.04221186487311</v>
       </c>
       <c r="E21">
-        <v>0.5642869883655166</v>
+        <v>0.5601281781228695</v>
       </c>
       <c r="F21">
-        <v>8.08338150742561</v>
+        <v>8.201354497048326</v>
       </c>
       <c r="G21">
         <v>19</v>
@@ -1106,30 +1106,30 @@
         <v>19</v>
       </c>
       <c r="I21">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J21">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>9.995045872936895</v>
+        <v>10.04504274332675</v>
       </c>
       <c r="E22">
-        <v>0.5642504310939386</v>
+        <v>0.5598801452805749</v>
       </c>
       <c r="F22">
-        <v>8.088113905154826</v>
+        <v>8.214516471212672</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -1138,30 +1138,30 @@
         <v>20</v>
       </c>
       <c r="I22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>10.01360024083103</v>
+        <v>10.05030080895501</v>
       </c>
       <c r="E23">
-        <v>0.5626311164277151</v>
+        <v>0.5594192642636</v>
       </c>
       <c r="F23">
-        <v>8.093559940176767</v>
+        <v>8.191565173140244</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1170,190 +1170,190 @@
         <v>23</v>
       </c>
       <c r="I23">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J23">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>10.01932864061022</v>
+        <v>10.04771469793628</v>
       </c>
       <c r="E24">
-        <v>0.5621305690951608</v>
+        <v>0.5596459727223436</v>
       </c>
       <c r="F24">
-        <v>8.081916975918688</v>
+        <v>8.22638070378907</v>
       </c>
       <c r="G24">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J24">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>10.01582475001892</v>
+        <v>10.05421322595777</v>
       </c>
       <c r="E25">
-        <v>0.5624367729060379</v>
+        <v>0.5590761758117565</v>
       </c>
       <c r="F25">
-        <v>8.097138180145139</v>
+        <v>8.225677610476197</v>
       </c>
       <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
         <v>24</v>
       </c>
-      <c r="H25">
-        <v>24</v>
-      </c>
-      <c r="I25">
-        <v>25</v>
-      </c>
       <c r="J25">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>10.01248387602112</v>
+        <v>10.0610557546141</v>
       </c>
       <c r="E26">
-        <v>0.5627286310082559</v>
+        <v>0.5584758184340619</v>
       </c>
       <c r="F26">
-        <v>8.107322171513305</v>
+        <v>8.216075569157622</v>
       </c>
       <c r="G26">
+        <v>27</v>
+      </c>
+      <c r="H26">
+        <v>27</v>
+      </c>
+      <c r="I26">
         <v>22</v>
       </c>
-      <c r="H26">
-        <v>22</v>
-      </c>
-      <c r="I26">
-        <v>30</v>
-      </c>
       <c r="J26">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>10.01854295825343</v>
+        <v>10.05943611753248</v>
       </c>
       <c r="E27">
-        <v>0.5621992389252626</v>
+        <v>0.5586179608483215</v>
       </c>
       <c r="F27">
-        <v>8.097560287644423</v>
+        <v>8.229992532968581</v>
       </c>
       <c r="G27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>10.02313698248931</v>
+        <v>10.05232837230183</v>
       </c>
       <c r="E28">
-        <v>0.561797637923859</v>
+        <v>0.5592414794437255</v>
       </c>
       <c r="F28">
-        <v>8.103318263936458</v>
+        <v>8.237918187113301</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I28">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J28">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>10.02451096014859</v>
+        <v>10.06320330968902</v>
       </c>
       <c r="E29">
-        <v>0.5616774916016938</v>
+        <v>0.5582873096498149</v>
       </c>
       <c r="F29">
-        <v>8.102660744148686</v>
+        <v>8.233064484515564</v>
       </c>
       <c r="G29">
         <v>28</v>
@@ -1370,118 +1370,118 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>10.03681907382139</v>
+        <v>10.07015124871279</v>
       </c>
       <c r="E30">
-        <v>0.560600484408285</v>
+        <v>0.5576771555653346</v>
       </c>
       <c r="F30">
-        <v>8.095094037492418</v>
+        <v>8.250926922262547</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J30">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>10.03369222308469</v>
+        <v>10.0715277881827</v>
       </c>
       <c r="E31">
-        <v>0.5608742210716977</v>
+        <v>0.5575562206451241</v>
       </c>
       <c r="F31">
-        <v>8.108171376642188</v>
+        <v>8.24718603336904</v>
       </c>
       <c r="G31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J31">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
         <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32">
-        <v>10.04771683520591</v>
+        <v>10.07940188438847</v>
       </c>
       <c r="E32">
-        <v>0.5596457853851398</v>
+        <v>0.5568641296688691</v>
       </c>
       <c r="F32">
-        <v>8.105025132419025</v>
+        <v>8.237376823999965</v>
       </c>
       <c r="G32">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I32">
         <v>29</v>
       </c>
       <c r="J32">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>10.04277329950196</v>
+        <v>10.07262985073815</v>
       </c>
       <c r="E33">
-        <v>0.5600789925092196</v>
+        <v>0.5574593877892002</v>
       </c>
       <c r="F33">
-        <v>8.117469659499969</v>
+        <v>8.253150937233052</v>
       </c>
       <c r="G33">
         <v>31</v>
@@ -1490,39 +1490,39 @@
         <v>31</v>
       </c>
       <c r="I33">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J33">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>10.06566729396867</v>
+        <v>10.07875473905231</v>
       </c>
       <c r="E34">
-        <v>0.558070975678174</v>
+        <v>0.5569210306852109</v>
       </c>
       <c r="F34">
-        <v>8.131315771475062</v>
+        <v>8.252991963635521</v>
       </c>
       <c r="G34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J34">
         <v>99</v>
@@ -1530,22 +1530,22 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>10.09427300135369</v>
+        <v>10.0805114944577</v>
       </c>
       <c r="E35">
-        <v>0.5555555625907604</v>
+        <v>0.5567665573933112</v>
       </c>
       <c r="F35">
-        <v>8.151095881856889</v>
+        <v>8.23947673605924</v>
       </c>
       <c r="G35">
         <v>34</v>
@@ -1554,74 +1554,74 @@
         <v>34</v>
       </c>
       <c r="I35">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J35">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>10.11728212372653</v>
+        <v>10.08350694001889</v>
       </c>
       <c r="E36">
-        <v>0.5535270992325838</v>
+        <v>0.5565031027242346</v>
       </c>
       <c r="F36">
-        <v>8.14713581001665</v>
+        <v>8.23366422383919</v>
       </c>
       <c r="G36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I36">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J36">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>10.12283443395597</v>
+        <v>10.08104119729175</v>
       </c>
       <c r="E37">
-        <v>0.5530369208936441</v>
+        <v>0.5567199748008715</v>
       </c>
       <c r="F37">
-        <v>8.162861129262037</v>
+        <v>8.239529514461678</v>
       </c>
       <c r="G37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I37">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J37">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Scaler_Imputer_Test.xlsx
+++ b/Scaler_Imputer_Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
   <si>
     <t>Imputer</t>
   </si>
@@ -41,6 +41,57 @@
   </si>
   <si>
     <t>rank_sum</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Simple_mean</t>
+  </si>
+  <si>
+    <t>MICE</t>
+  </si>
+  <si>
+    <t>Iterative</t>
+  </si>
+  <si>
+    <t>Simple_constant</t>
+  </si>
+  <si>
+    <t>Simple_most_frequent</t>
+  </si>
+  <si>
+    <t>Simple_median</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>power_transformer</t>
+  </si>
+  <si>
+    <t>standard_scaler</t>
+  </si>
+  <si>
+    <t>robust_scaler</t>
+  </si>
+  <si>
+    <t>min_max_scaler</t>
+  </si>
+  <si>
+    <t>max_abs_scaler</t>
+  </si>
+  <si>
+    <t>quantile_transformer_uniform</t>
+  </si>
+  <si>
+    <t>quantile_transformer_normal</t>
+  </si>
+  <si>
+    <t>normalizer</t>
+  </si>
+  <si>
+    <t>binarizer</t>
   </si>
 </sst>
 </file>
@@ -398,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,6 +482,2310 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>4.669495401643564</v>
+      </c>
+      <c r="E2">
+        <v>0.9048941378478427</v>
+      </c>
+      <c r="F2">
+        <v>3.472126484755617</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>4.674854744801033</v>
+      </c>
+      <c r="E3">
+        <v>0.9046756999179202</v>
+      </c>
+      <c r="F3">
+        <v>3.51838664309288</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>4.683563276476064</v>
+      </c>
+      <c r="E4">
+        <v>0.9043202202556347</v>
+      </c>
+      <c r="F4">
+        <v>3.506799843234325</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>4.662061098781923</v>
+      </c>
+      <c r="E5">
+        <v>0.9051967328302343</v>
+      </c>
+      <c r="F5">
+        <v>3.550417015558699</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>4.671299075955789</v>
+      </c>
+      <c r="E6">
+        <v>0.9048206510507001</v>
+      </c>
+      <c r="F6">
+        <v>3.532007616690239</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>4.699843163633381</v>
+      </c>
+      <c r="E7">
+        <v>0.9036539056990494</v>
+      </c>
+      <c r="F7">
+        <v>3.523632278406414</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>4.74256460112642</v>
+      </c>
+      <c r="E8">
+        <v>0.9018943784723508</v>
+      </c>
+      <c r="F8">
+        <v>3.495501934229138</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>4.697079075435291</v>
+      </c>
+      <c r="E9">
+        <v>0.9037671991778314</v>
+      </c>
+      <c r="F9">
+        <v>3.558050755539842</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>4.745662519330047</v>
+      </c>
+      <c r="E10">
+        <v>0.9017661683244262</v>
+      </c>
+      <c r="F10">
+        <v>3.549808597359736</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>4.76618102590671</v>
+      </c>
+      <c r="E11">
+        <v>0.9009148777423226</v>
+      </c>
+      <c r="F11">
+        <v>3.448590500157159</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>4.756847802135778</v>
+      </c>
+      <c r="E12">
+        <v>0.9013025584238548</v>
+      </c>
+      <c r="F12">
+        <v>3.551689458981613</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>4.765813284911558</v>
+      </c>
+      <c r="E13">
+        <v>0.9009301672395398</v>
+      </c>
+      <c r="F13">
+        <v>3.535120523730945</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>4.757987718520631</v>
+      </c>
+      <c r="E14">
+        <v>0.9012552496530588</v>
+      </c>
+      <c r="F14">
+        <v>3.556972716878829</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>4.740103273405912</v>
+      </c>
+      <c r="E15">
+        <v>0.9019961830638458</v>
+      </c>
+      <c r="F15">
+        <v>3.580530307637906</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>4.768200900174853</v>
+      </c>
+      <c r="E16">
+        <v>0.9008308767794655</v>
+      </c>
+      <c r="F16">
+        <v>3.529690456152759</v>
+      </c>
+      <c r="G16">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>4.771112003160764</v>
+      </c>
+      <c r="E17">
+        <v>0.9007097494765793</v>
+      </c>
+      <c r="F17">
+        <v>3.525518935643565</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>4.751598922849581</v>
+      </c>
+      <c r="E18">
+        <v>0.9015202509631457</v>
+      </c>
+      <c r="F18">
+        <v>3.591301139792551</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>4.760325429538025</v>
+      </c>
+      <c r="E19">
+        <v>0.9011581945902059</v>
+      </c>
+      <c r="F19">
+        <v>3.567604425388966</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>24</v>
+      </c>
+      <c r="J19">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>4.729324943719532</v>
+      </c>
+      <c r="E20">
+        <v>0.9024413701957614</v>
+      </c>
+      <c r="F20">
+        <v>3.622123670438472</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>42</v>
+      </c>
+      <c r="J20">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>4.76447439454352</v>
+      </c>
+      <c r="E21">
+        <v>0.9009858240622913</v>
+      </c>
+      <c r="F21">
+        <v>3.568202399418512</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>4.780666621025587</v>
+      </c>
+      <c r="E22">
+        <v>0.9003116744310076</v>
+      </c>
+      <c r="F22">
+        <v>3.531282637906648</v>
+      </c>
+      <c r="G22">
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>27</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>4.760187661081067</v>
+      </c>
+      <c r="E23">
+        <v>0.9011639156637615</v>
+      </c>
+      <c r="F23">
+        <v>3.598797820603487</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>15</v>
+      </c>
+      <c r="I23">
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>4.78240584526772</v>
+      </c>
+      <c r="E24">
+        <v>0.9002391272720269</v>
+      </c>
+      <c r="F24">
+        <v>3.547868175388966</v>
+      </c>
+      <c r="G24">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>29</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>4.778009655758</v>
+      </c>
+      <c r="E25">
+        <v>0.9004224517916806</v>
+      </c>
+      <c r="F25">
+        <v>3.560153345120227</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>4.77754463875444</v>
+      </c>
+      <c r="E26">
+        <v>0.9004418335021039</v>
+      </c>
+      <c r="F26">
+        <v>3.574056548208392</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>27</v>
+      </c>
+      <c r="J26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>4.767760875809381</v>
+      </c>
+      <c r="E27">
+        <v>0.9008491792033617</v>
+      </c>
+      <c r="F27">
+        <v>3.614749646393212</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>40</v>
+      </c>
+      <c r="J27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>4.799044832843285</v>
+      </c>
+      <c r="E28">
+        <v>0.8995437419034544</v>
+      </c>
+      <c r="F28">
+        <v>3.556696479255068</v>
+      </c>
+      <c r="G28">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>33</v>
+      </c>
+      <c r="I28">
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>4.806001575163322</v>
+      </c>
+      <c r="E29">
+        <v>0.8992522860596195</v>
+      </c>
+      <c r="F29">
+        <v>3.551921940515478</v>
+      </c>
+      <c r="G29">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>34</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="J29">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>4.776306344415654</v>
+      </c>
+      <c r="E30">
+        <v>0.9004934358821842</v>
+      </c>
+      <c r="F30">
+        <v>3.606195343587931</v>
+      </c>
+      <c r="G30">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>23</v>
+      </c>
+      <c r="I30">
+        <v>39</v>
+      </c>
+      <c r="J30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>4.782009297920619</v>
+      </c>
+      <c r="E31">
+        <v>0.9002556705226797</v>
+      </c>
+      <c r="F31">
+        <v>3.593957681518154</v>
+      </c>
+      <c r="G31">
+        <v>28</v>
+      </c>
+      <c r="H31">
+        <v>28</v>
+      </c>
+      <c r="I31">
+        <v>33</v>
+      </c>
+      <c r="J31">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>4.806818419293787</v>
+      </c>
+      <c r="E32">
+        <v>0.8992180363112225</v>
+      </c>
+      <c r="F32">
+        <v>3.566365658887319</v>
+      </c>
+      <c r="G32">
+        <v>35</v>
+      </c>
+      <c r="H32">
+        <v>35</v>
+      </c>
+      <c r="I32">
+        <v>22</v>
+      </c>
+      <c r="J32">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>4.787506850466825</v>
+      </c>
+      <c r="E33">
+        <v>0.9000262000810406</v>
+      </c>
+      <c r="F33">
+        <v>3.587111974304574</v>
+      </c>
+      <c r="G33">
+        <v>31</v>
+      </c>
+      <c r="H33">
+        <v>31</v>
+      </c>
+      <c r="I33">
+        <v>31</v>
+      </c>
+      <c r="J33">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>4.798837530268687</v>
+      </c>
+      <c r="E34">
+        <v>0.8995524204600763</v>
+      </c>
+      <c r="F34">
+        <v>3.595117761276128</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34">
+        <v>34</v>
+      </c>
+      <c r="J34">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35">
+        <v>4.778795055861427</v>
+      </c>
+      <c r="E35">
+        <v>0.9003897123666247</v>
+      </c>
+      <c r="F35">
+        <v>3.636699466053749</v>
+      </c>
+      <c r="G35">
+        <v>26</v>
+      </c>
+      <c r="H35">
+        <v>26</v>
+      </c>
+      <c r="I35">
+        <v>46</v>
+      </c>
+      <c r="J35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>4.84363841714313</v>
+      </c>
+      <c r="E36">
+        <v>0.897668152956269</v>
+      </c>
+      <c r="F36">
+        <v>3.554320955917022</v>
+      </c>
+      <c r="G36">
+        <v>42</v>
+      </c>
+      <c r="H36">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37">
+        <v>4.812865992550313</v>
+      </c>
+      <c r="E37">
+        <v>0.8989642843864361</v>
+      </c>
+      <c r="F37">
+        <v>3.575444910419614</v>
+      </c>
+      <c r="G37">
+        <v>38</v>
+      </c>
+      <c r="H37">
+        <v>38</v>
+      </c>
+      <c r="I37">
+        <v>28</v>
+      </c>
+      <c r="J37">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>4.783608052112786</v>
+      </c>
+      <c r="E38">
+        <v>0.9001889649552266</v>
+      </c>
+      <c r="F38">
+        <v>3.645498316831683</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>48</v>
+      </c>
+      <c r="J38">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>4.838568159735902</v>
+      </c>
+      <c r="E39">
+        <v>0.8978822801056277</v>
+      </c>
+      <c r="F39">
+        <v>3.580417614332863</v>
+      </c>
+      <c r="G39">
+        <v>41</v>
+      </c>
+      <c r="H39">
+        <v>41</v>
+      </c>
+      <c r="I39">
+        <v>29</v>
+      </c>
+      <c r="J39">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>4.807390819921372</v>
+      </c>
+      <c r="E40">
+        <v>0.8991940324529597</v>
+      </c>
+      <c r="F40">
+        <v>3.627096311881187</v>
+      </c>
+      <c r="G40">
+        <v>36</v>
+      </c>
+      <c r="H40">
+        <v>36</v>
+      </c>
+      <c r="I40">
+        <v>43</v>
+      </c>
+      <c r="J40">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>4.825205690552372</v>
+      </c>
+      <c r="E41">
+        <v>0.8984455296609619</v>
+      </c>
+      <c r="F41">
+        <v>3.598991078500709</v>
+      </c>
+      <c r="G41">
+        <v>39</v>
+      </c>
+      <c r="H41">
+        <v>39</v>
+      </c>
+      <c r="I41">
+        <v>37</v>
+      </c>
+      <c r="J41">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>4.8636061330137</v>
+      </c>
+      <c r="E42">
+        <v>0.8968226955327832</v>
+      </c>
+      <c r="F42">
+        <v>3.566477144035832</v>
+      </c>
+      <c r="G42">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>47</v>
+      </c>
+      <c r="I42">
+        <v>23</v>
+      </c>
+      <c r="J42">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>4.857537125569639</v>
+      </c>
+      <c r="E43">
+        <v>0.8970800326290891</v>
+      </c>
+      <c r="F43">
+        <v>3.573744979962281</v>
+      </c>
+      <c r="G43">
+        <v>46</v>
+      </c>
+      <c r="H43">
+        <v>46</v>
+      </c>
+      <c r="I43">
+        <v>26</v>
+      </c>
+      <c r="J43">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>4.811000355755987</v>
+      </c>
+      <c r="E44">
+        <v>0.8990425992263001</v>
+      </c>
+      <c r="F44">
+        <v>3.632304602781705</v>
+      </c>
+      <c r="G44">
+        <v>37</v>
+      </c>
+      <c r="H44">
+        <v>37</v>
+      </c>
+      <c r="I44">
+        <v>45</v>
+      </c>
+      <c r="J44">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>4.836066665659771</v>
+      </c>
+      <c r="E45">
+        <v>0.8979878406066445</v>
+      </c>
+      <c r="F45">
+        <v>3.628119905115512</v>
+      </c>
+      <c r="G45">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>40</v>
+      </c>
+      <c r="I45">
+        <v>44</v>
+      </c>
+      <c r="J45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>4.855635483146155</v>
+      </c>
+      <c r="E46">
+        <v>0.8971605996576877</v>
+      </c>
+      <c r="F46">
+        <v>3.601393785360678</v>
+      </c>
+      <c r="G46">
+        <v>45</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+      <c r="I46">
+        <v>38</v>
+      </c>
+      <c r="J46">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>4.867702510336584</v>
+      </c>
+      <c r="E47">
+        <v>0.8966488199562139</v>
+      </c>
+      <c r="F47">
+        <v>3.598385591702029</v>
+      </c>
+      <c r="G47">
+        <v>49</v>
+      </c>
+      <c r="H47">
+        <v>49</v>
+      </c>
+      <c r="I47">
+        <v>35</v>
+      </c>
+      <c r="J47">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>4.855350372530042</v>
+      </c>
+      <c r="E48">
+        <v>0.8971726762413103</v>
+      </c>
+      <c r="F48">
+        <v>3.642198580858086</v>
+      </c>
+      <c r="G48">
+        <v>44</v>
+      </c>
+      <c r="H48">
+        <v>44</v>
+      </c>
+      <c r="I48">
+        <v>47</v>
+      </c>
+      <c r="J48">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>4.850603578403598</v>
+      </c>
+      <c r="E49">
+        <v>0.8973736345678752</v>
+      </c>
+      <c r="F49">
+        <v>3.710898831918904</v>
+      </c>
+      <c r="G49">
+        <v>43</v>
+      </c>
+      <c r="H49">
+        <v>43</v>
+      </c>
+      <c r="I49">
+        <v>50</v>
+      </c>
+      <c r="J49">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>4.864130511158583</v>
+      </c>
+      <c r="E50">
+        <v>0.8968004458527371</v>
+      </c>
+      <c r="F50">
+        <v>3.616593967468174</v>
+      </c>
+      <c r="G50">
+        <v>48</v>
+      </c>
+      <c r="H50">
+        <v>48</v>
+      </c>
+      <c r="I50">
+        <v>41</v>
+      </c>
+      <c r="J50">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>4.886594371714837</v>
+      </c>
+      <c r="E51">
+        <v>0.8958450382776574</v>
+      </c>
+      <c r="F51">
+        <v>3.655113238448845</v>
+      </c>
+      <c r="G51">
+        <v>51</v>
+      </c>
+      <c r="H51">
+        <v>51</v>
+      </c>
+      <c r="I51">
+        <v>49</v>
+      </c>
+      <c r="J51">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>4.881245345157886</v>
+      </c>
+      <c r="E52">
+        <v>0.8960729363550614</v>
+      </c>
+      <c r="F52">
+        <v>3.741156377887789</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>50</v>
+      </c>
+      <c r="I52">
+        <v>52</v>
+      </c>
+      <c r="J52">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>4.901882900424443</v>
+      </c>
+      <c r="E53">
+        <v>0.8951922862753894</v>
+      </c>
+      <c r="F53">
+        <v>3.733144995874586</v>
+      </c>
+      <c r="G53">
+        <v>52</v>
+      </c>
+      <c r="H53">
+        <v>52</v>
+      </c>
+      <c r="I53">
+        <v>51</v>
+      </c>
+      <c r="J53">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>5.038194715904488</v>
+      </c>
+      <c r="E54">
+        <v>0.8892822430081273</v>
+      </c>
+      <c r="F54">
+        <v>3.822473194247996</v>
+      </c>
+      <c r="G54">
+        <v>53</v>
+      </c>
+      <c r="H54">
+        <v>53</v>
+      </c>
+      <c r="I54">
+        <v>53</v>
+      </c>
+      <c r="J54">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>5.116548505858439</v>
+      </c>
+      <c r="E55">
+        <v>0.8858117087409495</v>
+      </c>
+      <c r="F55">
+        <v>3.87266139438944</v>
+      </c>
+      <c r="G55">
+        <v>54</v>
+      </c>
+      <c r="H55">
+        <v>54</v>
+      </c>
+      <c r="I55">
+        <v>55</v>
+      </c>
+      <c r="J55">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>5.17647014616071</v>
+      </c>
+      <c r="E56">
+        <v>0.8831214513338769</v>
+      </c>
+      <c r="F56">
+        <v>3.864370807402169</v>
+      </c>
+      <c r="G56">
+        <v>55</v>
+      </c>
+      <c r="H56">
+        <v>55</v>
+      </c>
+      <c r="I56">
+        <v>54</v>
+      </c>
+      <c r="J56">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <v>5.440797103172951</v>
+      </c>
+      <c r="E57">
+        <v>0.8757474727057273</v>
+      </c>
+      <c r="F57">
+        <v>4.040060342955837</v>
+      </c>
+      <c r="G57">
+        <v>57</v>
+      </c>
+      <c r="H57">
+        <v>56</v>
+      </c>
+      <c r="I57">
+        <v>56</v>
+      </c>
+      <c r="J57">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>5.398660901365003</v>
+      </c>
+      <c r="E58">
+        <v>0.8728725072025824</v>
+      </c>
+      <c r="F58">
+        <v>4.076037524752474</v>
+      </c>
+      <c r="G58">
+        <v>56</v>
+      </c>
+      <c r="H58">
+        <v>58</v>
+      </c>
+      <c r="I58">
+        <v>57</v>
+      </c>
+      <c r="J58">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>5.474338997036137</v>
+      </c>
+      <c r="E59">
+        <v>0.8742107450558948</v>
+      </c>
+      <c r="F59">
+        <v>4.150526775228227</v>
+      </c>
+      <c r="G59">
+        <v>58</v>
+      </c>
+      <c r="H59">
+        <v>57</v>
+      </c>
+      <c r="I59">
+        <v>63</v>
+      </c>
+      <c r="J59">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <v>5.546048723707012</v>
+      </c>
+      <c r="E60">
+        <v>0.8708936714306539</v>
+      </c>
+      <c r="F60">
+        <v>4.093311384571102</v>
+      </c>
+      <c r="G60">
+        <v>60</v>
+      </c>
+      <c r="H60">
+        <v>60</v>
+      </c>
+      <c r="I60">
+        <v>58</v>
+      </c>
+      <c r="J60">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>5.534031926057937</v>
+      </c>
+      <c r="E61">
+        <v>0.8714525427716693</v>
+      </c>
+      <c r="F61">
+        <v>4.142782534747926</v>
+      </c>
+      <c r="G61">
+        <v>59</v>
+      </c>
+      <c r="H61">
+        <v>59</v>
+      </c>
+      <c r="I61">
+        <v>61</v>
+      </c>
+      <c r="J61">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>5.550586227284263</v>
+      </c>
+      <c r="E62">
+        <v>0.8706823281476724</v>
+      </c>
+      <c r="F62">
+        <v>4.137126296570443</v>
+      </c>
+      <c r="G62">
+        <v>61</v>
+      </c>
+      <c r="H62">
+        <v>61</v>
+      </c>
+      <c r="I62">
+        <v>60</v>
+      </c>
+      <c r="J62">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>5.553698765710458</v>
+      </c>
+      <c r="E63">
+        <v>0.8705372555154373</v>
+      </c>
+      <c r="F63">
+        <v>4.132146820256601</v>
+      </c>
+      <c r="G63">
+        <v>62</v>
+      </c>
+      <c r="H63">
+        <v>62</v>
+      </c>
+      <c r="I63">
+        <v>59</v>
+      </c>
+      <c r="J63">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64">
+        <v>5.605129385393603</v>
+      </c>
+      <c r="E64">
+        <v>0.8681283458380448</v>
+      </c>
+      <c r="F64">
+        <v>4.149416635619706</v>
+      </c>
+      <c r="G64">
+        <v>63</v>
+      </c>
+      <c r="H64">
+        <v>63</v>
+      </c>
+      <c r="I64">
+        <v>62</v>
+      </c>
+      <c r="J64">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65">
+        <v>5.60719739579825</v>
+      </c>
+      <c r="E65">
+        <v>0.868031019891535</v>
+      </c>
+      <c r="F65">
+        <v>4.246136347767087</v>
+      </c>
+      <c r="G65">
+        <v>64</v>
+      </c>
+      <c r="H65">
+        <v>64</v>
+      </c>
+      <c r="I65">
+        <v>65</v>
+      </c>
+      <c r="J65">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66">
+        <v>5.633393063231265</v>
+      </c>
+      <c r="E66">
+        <v>0.8667950759784439</v>
+      </c>
+      <c r="F66">
+        <v>4.199165752528993</v>
+      </c>
+      <c r="G66">
+        <v>65</v>
+      </c>
+      <c r="H66">
+        <v>65</v>
+      </c>
+      <c r="I66">
+        <v>64</v>
+      </c>
+      <c r="J66">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67">
+        <v>13.44314061879196</v>
+      </c>
+      <c r="E67">
+        <v>0.2117411312078815</v>
+      </c>
+      <c r="F67">
+        <v>11.13222008587366</v>
+      </c>
+      <c r="G67">
+        <v>66</v>
+      </c>
+      <c r="H67">
+        <v>66</v>
+      </c>
+      <c r="I67">
+        <v>66</v>
+      </c>
+      <c r="J67">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68">
+        <v>13.56360618074641</v>
+      </c>
+      <c r="E68">
+        <v>0.197550472133789</v>
+      </c>
+      <c r="F68">
+        <v>11.25637902580273</v>
+      </c>
+      <c r="G68">
+        <v>67</v>
+      </c>
+      <c r="H68">
+        <v>67</v>
+      </c>
+      <c r="I68">
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69">
+        <v>13.58319200098312</v>
+      </c>
+      <c r="E69">
+        <v>0.1952313278907331</v>
+      </c>
+      <c r="F69">
+        <v>11.28277093555805</v>
+      </c>
+      <c r="G69">
+        <v>68</v>
+      </c>
+      <c r="H69">
+        <v>68</v>
+      </c>
+      <c r="I69">
+        <v>70</v>
+      </c>
+      <c r="J69">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>44</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70">
+        <v>13.58453156553737</v>
+      </c>
+      <c r="E70">
+        <v>0.1950725886569517</v>
+      </c>
+      <c r="F70">
+        <v>11.27300960728775</v>
+      </c>
+      <c r="G70">
+        <v>69</v>
+      </c>
+      <c r="H70">
+        <v>69</v>
+      </c>
+      <c r="I70">
+        <v>69</v>
+      </c>
+      <c r="J70">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71">
+        <v>13.58696065860116</v>
+      </c>
+      <c r="E71">
+        <v>0.1947846996864766</v>
+      </c>
+      <c r="F71">
+        <v>11.26647605035087</v>
+      </c>
+      <c r="G71">
+        <v>70</v>
+      </c>
+      <c r="H71">
+        <v>70</v>
+      </c>
+      <c r="I71">
+        <v>68</v>
+      </c>
+      <c r="J71">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72">
+        <v>13.59205423502368</v>
+      </c>
+      <c r="E72">
+        <v>0.194180856846623</v>
+      </c>
+      <c r="F72">
+        <v>11.28781183295131</v>
+      </c>
+      <c r="G72">
+        <v>71</v>
+      </c>
+      <c r="H72">
+        <v>71</v>
+      </c>
+      <c r="I72">
+        <v>71</v>
+      </c>
+      <c r="J72">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73">
+        <v>13.7003104457697</v>
+      </c>
+      <c r="E73">
+        <v>0.181293573714575</v>
+      </c>
+      <c r="F73">
+        <v>11.3671474235421</v>
+      </c>
+      <c r="G73">
+        <v>72</v>
+      </c>
+      <c r="H73">
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>72</v>
+      </c>
+      <c r="J73">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
